--- a/cheats/Redux/Redux.xlsx
+++ b/cheats/Redux/Redux.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillsemenov/Disk/Software/Projects/portfolio_project/portfolio/books/Redux/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirillsemenov/Disk/Engineering/[4] Projects/[11] Portfolio (2025)/web_portfolio/cheats/Redux/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F257B8FF-EB37-4B47-ABF4-7EAB6F0270F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE9CF13-A404-2644-BA89-B10F4A46C52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{78CCBB05-A903-0D46-9E83-E5B96BAC8B37}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{78CCBB05-A903-0D46-9E83-E5B96BAC8B37}"/>
   </bookViews>
   <sheets>
     <sheet name="Redux" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Redux-Persist" sheetId="3" r:id="rId3"/>
     <sheet name="Redux-Thunk" sheetId="4" r:id="rId4"/>
     <sheet name="Redux-Saga" sheetId="5" r:id="rId5"/>
+    <sheet name="Redux Toolkit" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="241">
   <si>
     <t>Redux</t>
   </si>
@@ -1977,9 +1978,6 @@
     <t>Redux-Persist</t>
   </si>
   <si>
-    <t>Store in localStorage</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4101,9 +4099,6 @@
     <t>Thunk</t>
   </si>
   <si>
-    <t>Middleware for async actions --&gt; actions as functions</t>
-  </si>
-  <si>
     <t xml:space="preserve">    const getCategoriesMap = async () =&gt; {</t>
   </si>
   <si>
@@ -5816,13 +5811,851 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>Redux-Toolkit</t>
+  </si>
+  <si>
+    <t>npm i @reduxjs/toolkit</t>
+  </si>
+  <si>
+    <t>npm i react-redux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    reducer: rootReducer,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">configureStore </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">} from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'@reduxjs/toolkit'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">rootReducer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> './root-reducer'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">logger </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'redux-logger'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> middleWares = [process.env.NODE_ENV !== 'production' &amp;&amp; logger].filter(Boolean)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> store = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>configureStore(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    middleware: middleWares,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overwrites default (Thunk, ... , ...) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    user: userReducer,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    cart: cartReducer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>combineReducers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'@reduxjs/toolkit'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> userReducer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> './user/user.reducer'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rootReducer = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>combineReducers(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cartReducer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> './cart/cart.reducer'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    currentUser: null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    name: 'user',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    initialState: INITIAL_STATE,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            state.currentUser = action.payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> createSlice </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> '@reduxjs/toolkit'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INITIAL_STATE = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">export const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">userSlice = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>createSlice(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export const {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> setCurrentUser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = userSlice.actions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">export const </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userReducer = userSlice.reducer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    reducers: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        setCurrentUser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>state, action</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <t>Immer inside to handle mutations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">setCurrentUser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> './store/user/user.reducer'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        serializableCheck: false</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    middleware: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getDefaultMiddleware</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> getDefaultMiddleware</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>({</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>})</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.concat(middleWares)</t>
+    </r>
+  </si>
+  <si>
+    <t>Modify default middleware</t>
+  </si>
+  <si>
+    <t>Add to default middleware</t>
+  </si>
+  <si>
+    <t>&gt; Store in localStorage</t>
+  </si>
+  <si>
+    <t>&gt; Middleware for async actions --&gt; actions as functions</t>
+  </si>
+  <si>
+    <t>&gt; Simplified Redux
+&gt; Comes with middleware: Thunk, serializable check, immutability check, …</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5845,13 +6678,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -5868,12 +6694,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -5882,16 +6708,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -5900,25 +6726,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -5926,21 +6737,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -5954,117 +6750,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -6077,9 +6763,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -6088,185 +6772,98 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="medium">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6275,51 +6872,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6339,9 +6947,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6379,7 +6987,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6485,7 +7093,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6627,7 +7235,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6635,549 +7243,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C42981F-88A7-014A-BC44-8B5E666D964B}">
-  <dimension ref="B1:C88"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="50" t="s">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="51"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="5" t="s">
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="5" t="s">
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+      <c r="B11" s="8"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+      <c r="B13" s="17"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="5" t="s">
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="3" t="s">
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B16" s="17"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+      <c r="B17" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+      <c r="B19" s="17"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
+      <c r="B21" s="17"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="B22" s="17"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="8" t="s">
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="11"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="23" t="s">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
+      <c r="B33" s="17"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="50" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="51"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="B36" s="35"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="3" t="s">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="5" t="s">
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="5" t="s">
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="3" t="s">
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="50" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="51"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
+      <c r="B44" s="35"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="5" t="s">
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="B47" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="5" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="B48" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="3" t="s">
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="5" t="s">
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="B54" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="36"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="17"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B59" s="17"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="17"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" s="8"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="34"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="17"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="17"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="17"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="17"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B72" s="17"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="17"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" s="17"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="17"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="17"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="17"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="35"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="17"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="17"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" s="17"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="17"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="53"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="51"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="19"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="18"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="18"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="18"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="18"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="18"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="18"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="18"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="18"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="18"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C76" s="18"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="18"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C78" s="18"/>
-    </row>
-    <row r="79" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" s="51"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="26" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C88" s="7"/>
+      <c r="B87" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="B54:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7185,96 +7787,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300352FE-C515-0749-A24C-3766FD1D65F5}">
-  <dimension ref="B1:C13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="52" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="51"/>
-    </row>
-    <row r="3" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="41"/>
-    </row>
-    <row r="4" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-    </row>
-    <row r="5" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="54" t="s">
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="55"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="38"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
+      <c r="B5" s="26"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="35"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="B6" s="19"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="35"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B7" s="19"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="35"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="B8" s="19"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="35"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="44" t="s">
+      <c r="B9" s="19"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="35"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="44" t="s">
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="35"/>
-    </row>
-    <row r="13" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="45" t="s">
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="B12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7282,247 +7880,244 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D61BA41-CF09-4A4B-948C-DADC67EB5B60}">
-  <dimension ref="B1:C38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="113" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="58.5" customWidth="1"/>
-    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="51"/>
-    </row>
-    <row r="3" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="27"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="38"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="31"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="57"/>
-    </row>
-    <row r="4" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="51"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B10" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="30"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="30"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="31" t="s">
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="19"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="30"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="35" t="s">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="21"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="35"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="26"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="19"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="19"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="19"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="35"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="35"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="35"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="35"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="35"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="35"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="35"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="40"/>
-    </row>
-    <row r="24" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="51"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="38"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="35"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="35"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30" s="35"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="35"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="35"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="35"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="35"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="35"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="35"/>
-    </row>
-    <row r="38" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="40"/>
+      <c r="B37" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7530,579 +8125,572 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4AE2F2-F3D8-4441-B012-88DA636E9FA3}">
-  <dimension ref="B1:C92"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="63.83203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="55"/>
-    </row>
-    <row r="3" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" s="41"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="35"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="26"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="19"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="19"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="26"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="19"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="19"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="19"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="19"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="19"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="19"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="19"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="19"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="19"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="19"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="19"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" s="26"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="19"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="21"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="35"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="30"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="31"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="19"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="19"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="40"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="17"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="17"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="17"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="17"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="17"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="17"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="57"/>
-    </row>
-    <row r="4" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="61"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B77" s="17"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" s="17"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="17"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="17"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="8"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" s="40"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B85" s="17"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="17"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="38"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="37" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="35"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="35"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="35"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="35"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="38"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="47"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="47"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="35"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="35"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="35"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="35"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="35"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="35"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="35"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" s="35"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C44" s="35"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="35"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="35"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="35"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="35"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="35"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="35"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="35"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="35"/>
-    </row>
-    <row r="53" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C53" s="33"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="23" t="s">
+      <c r="B89" s="17"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90" s="17"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="38"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="35"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="35"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="35"/>
-    </row>
-    <row r="59" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="40"/>
-    </row>
-    <row r="60" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="55"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="13"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="30"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="35"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="35"/>
-    </row>
-    <row r="66" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="46" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C68" s="61"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="17"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B79" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="59"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C92" s="7"/>
+      <c r="B91" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A67:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8110,484 +8698,902 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF50A886-1C1F-3046-B6AE-FAF6C5DD5337}">
-  <dimension ref="B1:C75"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="35"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="26"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="19"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="19"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="19"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="26"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="19"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="19"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="19"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="19"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="19"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="19"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="19"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="21"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B42" s="35"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="55"/>
-    </row>
-    <row r="3" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="57"/>
-    </row>
-    <row r="4" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="27"/>
-    </row>
-    <row r="5" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="61"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
+      <c r="B43" s="30"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B44" s="31"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="31"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="31"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="31"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="31"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="31"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="33"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="35"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="30"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="31"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="19"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="19"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="21"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="40"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="17"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="17"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="38"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="37" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="35"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="35"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="38"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="35"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="35"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="35"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="35"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="35"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C32" s="35"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="35"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="C34" s="35"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="35"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="35"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="35"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="35"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="35"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="25" t="s">
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="17"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="35"/>
-    </row>
-    <row r="42" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="40"/>
-    </row>
-    <row r="43" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="55"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="30"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="30"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="C48" s="30"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="30"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="C50" s="30"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="C51" s="30"/>
-    </row>
-    <row r="52" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C52" s="49"/>
-    </row>
-    <row r="53" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="55"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="30"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="35"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="C58" s="35"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="35"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="35"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="C62" s="35"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="40"/>
-    </row>
-    <row r="65" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C66" s="59"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="25" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="35"/>
-    </row>
-    <row r="75" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="26" t="s">
+      <c r="B72" s="19"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C75" s="40"/>
+      <c r="B73" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B44:C44"/>
+  <mergeCells count="5">
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D569AC-11FA-6245-B221-52345C79031F}">
+  <dimension ref="A1:B69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="41"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="35"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="30"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="17"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="17"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="17"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="35"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="17"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="17"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="17"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="35"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="8"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="34"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="17"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B60" s="17"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="17"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" s="17"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="17"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="17"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" s="17"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="17"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="17"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="17"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A34:B34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>